--- a/2022/Symphony/Others/Document/Final 2021-2022/Mugdho Corporation Net Profit Top Sheet.xlsx
+++ b/2022/Symphony/Others/Document/Final 2021-2022/Mugdho Corporation Net Profit Top Sheet.xlsx
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
